--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3862496666666667</v>
+        <v>0.3821403333333333</v>
       </c>
       <c r="H2">
-        <v>1.158749</v>
+        <v>1.146421</v>
       </c>
       <c r="I2">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128052</v>
       </c>
       <c r="J2">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>0.371045334788</v>
+        <v>0.01932827591966667</v>
       </c>
       <c r="R2">
-        <v>3.339408013092</v>
+        <v>0.173954483277</v>
       </c>
       <c r="S2">
-        <v>0.01394702023987003</v>
+        <v>0.0009102041889139073</v>
       </c>
       <c r="T2">
-        <v>0.01394702023987003</v>
+        <v>0.000910204188913907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3862496666666667</v>
+        <v>0.3821403333333333</v>
       </c>
       <c r="H3">
-        <v>1.158749</v>
+        <v>1.146421</v>
       </c>
       <c r="I3">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128052</v>
       </c>
       <c r="J3">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128051</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>0.2041432488244445</v>
+        <v>0.2019713565755556</v>
       </c>
       <c r="R3">
-        <v>1.83728923942</v>
+        <v>1.81774220918</v>
       </c>
       <c r="S3">
-        <v>0.00767342897550273</v>
+        <v>0.009511203977000421</v>
       </c>
       <c r="T3">
-        <v>0.007673428975502731</v>
+        <v>0.009511203977000419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3862496666666667</v>
+        <v>0.3821403333333333</v>
       </c>
       <c r="H4">
-        <v>1.158749</v>
+        <v>1.146421</v>
       </c>
       <c r="I4">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128052</v>
       </c>
       <c r="J4">
-        <v>0.06565390438652881</v>
+        <v>0.06500081136128051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>1.171462279028444</v>
+        <v>1.158999021691556</v>
       </c>
       <c r="R4">
-        <v>10.543160511256</v>
+        <v>10.430991195224</v>
       </c>
       <c r="S4">
-        <v>0.04403345517115605</v>
+        <v>0.05457940319536619</v>
       </c>
       <c r="T4">
-        <v>0.04403345517115605</v>
+        <v>0.05457940319536618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.135034</v>
       </c>
       <c r="I5">
-        <v>0.8008810974044716</v>
+        <v>0.8014409005237051</v>
       </c>
       <c r="J5">
-        <v>0.8008810974044716</v>
+        <v>0.801440900523705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>4.526207507208</v>
+        <v>0.238311961562</v>
       </c>
       <c r="R5">
-        <v>40.735867564872</v>
+        <v>2.144807654058</v>
       </c>
       <c r="S5">
-        <v>0.1701331395230987</v>
+        <v>0.01122255014278394</v>
       </c>
       <c r="T5">
-        <v>0.1701331395230987</v>
+        <v>0.01122255014278393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.135034</v>
       </c>
       <c r="I6">
-        <v>0.8008810974044716</v>
+        <v>0.8014409005237051</v>
       </c>
       <c r="J6">
-        <v>0.8008810974044716</v>
+        <v>0.801440900523705</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>2.490247467746667</v>
@@ -818,10 +818,10 @@
         <v>22.41222720972</v>
       </c>
       <c r="S6">
-        <v>0.09360455065360684</v>
+        <v>0.11727034971955</v>
       </c>
       <c r="T6">
-        <v>0.09360455065360686</v>
+        <v>0.1172703497195499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.135034</v>
       </c>
       <c r="I7">
-        <v>0.8008810974044716</v>
+        <v>0.8014409005237051</v>
       </c>
       <c r="J7">
-        <v>0.8008810974044716</v>
+        <v>0.801440900523705</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>14.29011731081067</v>
@@ -880,10 +880,10 @@
         <v>128.611055797296</v>
       </c>
       <c r="S7">
-        <v>0.537143407227766</v>
+        <v>0.6729480006613711</v>
       </c>
       <c r="T7">
-        <v>0.5371434072277661</v>
+        <v>0.6729480006613711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.355571</v>
       </c>
       <c r="I8">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="J8">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>0.754282101052</v>
+        <v>0.03971414186966667</v>
       </c>
       <c r="R8">
-        <v>6.788538909468</v>
+        <v>0.357427276827</v>
       </c>
       <c r="S8">
-        <v>0.02835229753246897</v>
+        <v>0.001870212244440848</v>
       </c>
       <c r="T8">
-        <v>0.02835229753246897</v>
+        <v>0.001870212244440848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.355571</v>
       </c>
       <c r="I9">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="J9">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>0.4149940295755556</v>
@@ -1004,10 +1004,10 @@
         <v>3.73494626618</v>
       </c>
       <c r="S9">
-        <v>0.01559898370160746</v>
+        <v>0.01954283484279062</v>
       </c>
       <c r="T9">
-        <v>0.01559898370160746</v>
+        <v>0.01954283484279061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.355571</v>
       </c>
       <c r="I10">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="J10">
-        <v>0.1334649982089996</v>
+        <v>0.1335582881150144</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>2.381415278091556</v>
@@ -1066,10 +1066,10 @@
         <v>21.432737502824</v>
       </c>
       <c r="S10">
-        <v>0.08951371697492316</v>
+        <v>0.1121452410277829</v>
       </c>
       <c r="T10">
-        <v>0.08951371697492315</v>
+        <v>0.1121452410277829</v>
       </c>
     </row>
   </sheetData>
